--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Chagas Disease_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Chagas Disease_gen_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Recent travel to endemic areas in Latin America</t>
+          <t>Recent travel to or residence in endemic areas such as rural parts of Latin America</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Travel history to regions where Chagas Disease is prevalent significantly increases the likelihood of exposure to the Trypanosoma cruzi parasite.</t>
+          <t>Chagas Disease is endemic in certain regions, and recent travel or residence in these areas increases the likelihood of exposure to the Trypanosoma cruzi parasite.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absence of symptoms for an extended period</t>
+          <t>No history of travel to or residence in endemic areas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Chagas Disease often presents with symptoms; a prolonged absence of symptoms decreases the likelihood of the disease.</t>
+          <t>Without exposure to endemic areas, the likelihood of contracting Chagas Disease is significantly reduced.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Symptoms of acute Chagas disease such as fever, fatigue, and swelling at the site of infection</t>
+          <t>Acute febrile illness with swelling at the site of a bug bite</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>These symptoms are commonly associated with the acute phase of Chagas Disease, indicating a higher probability of infection.</t>
+          <t>The acute phase of Chagas Disease often presents with fever and a chagoma, which is swelling at the site of the triatomine bug bite.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Negative serological tests for Trypanosoma cruzi</t>
+          <t>Absence of acute febrile illness following potential exposure</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A negative result on tests specifically designed to detect Chagas Disease strongly suggests that the disease is not present.</t>
+          <t>The lack of an acute febrile response after exposure reduces the likelihood of an acute Chagas infection.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Presence of a chagoma or Romana's sign</t>
+          <t>Unilateral periorbital swelling (Romaña's sign)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>These are specific clinical findings associated with Chagas Disease, providing strong evidence for the diagnosis.</t>
+          <t>Romaña's sign is a classic manifestation of acute Chagas Disease, indicating recent infection.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No known exposure to triatomine bugs or risk factors</t>
+          <t>No history of heart-related symptoms or complications</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Lack of exposure to vectors known to transmit Chagas Disease significantly reduces the likelihood of infection.</t>
+          <t>Chronic Chagas Disease often leads to cardiac issues, so their absence makes the diagnosis less likely.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of blood transfusions or organ transplants in endemic areas</t>
+          <t>History of heart palpitations or arrhythmias</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>These are known risk factors for transmission of Chagas Disease, increasing the likelihood of infection.</t>
+          <t>Chronic Chagas Disease can lead to cardiac complications, including arrhythmias, which are common in affected individuals.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Presence of alternative diagnoses explaining symptoms</t>
+          <t>No gastrointestinal symptoms such as dysphagia or constipation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>If other conditions can account for the patient's symptoms, it diminishes the likelihood of Chagas Disease being the cause.</t>
+          <t>The absence of gastrointestinal symptoms reduces the likelihood of chronic Chagas Disease, which can cause megasyndromes.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Symptoms of chronic Chagas disease such as cardiac arrhythmias or gastrointestinal issues</t>
+          <t>Gastrointestinal symptoms such as dysphagia or constipation</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chronic manifestations are indicative of long-term infection with Trypanosoma cruzi, supporting the diagnosis.</t>
+          <t>Chronic Chagas Disease can cause megasyndromes, including megaesophagus and megacolon, leading to these symptoms.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Living in non-endemic areas</t>
+          <t>No swelling at the site of a bug bite</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Residing in regions where Chagas Disease is not prevalent greatly reduces the risk of contracting the disease.</t>
+          <t>The absence of a chagoma or swelling at the site of a triatomine bug bite decreases the likelihood of acute Chagas Disease.</t>
         </is>
       </c>
     </row>
@@ -613,88 +613,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of living in or traveling to endemic areas for Chagas Disease</t>
+          <t>History of living in or traveling to endemic areas in Latin America</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Individuals with a history of residing in or visiting regions where Chagas Disease is prevalent are at a higher risk of exposure to the Trypanosoma cruzi parasite.</t>
+          <t>Chagas Disease is endemic to certain regions in Latin America, and a history of living in or traveling to these areas increases the likelihood of exposure to the Trypanosoma cruzi parasite.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of travel to endemic areas</t>
+          <t>No history of living in or traveling to endemic areas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Lack of exposure to regions where Chagas Disease is common significantly reduces the likelihood of infection.</t>
+          <t>Without exposure to endemic areas, the likelihood of contracting Chagas Disease is significantly reduced.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Previous diagnosis of acute Chagas Disease</t>
+          <t>Previous diagnosis of cardiomyopathy</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A past diagnosis indicates prior infection, which can lead to chronic manifestations of the disease.</t>
+          <t>Chronic Chagas Disease can lead to cardiomyopathy, so a history of this condition may suggest a previous undiagnosed Chagas infection.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No previous diagnosis of Chagas Disease or related symptoms</t>
+          <t>No history of cardiomyopathy or gastrointestinal complications</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of prior diagnosis or symptoms suggests that the individual has not been infected.</t>
+          <t>Absence of these common complications of chronic Chagas Disease reduces the likelihood of past infection.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of cardiac issues such as arrhythmias or cardiomyopathy</t>
+          <t>History of megaesophagus or megacolon</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chagas Disease is known to cause chronic cardiac complications, making a history of these issues relevant.</t>
+          <t>These gastrointestinal complications are associated with chronic Chagas Disease, indicating possible past infection.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>History of other cardiac conditions unrelated to Chagas Disease</t>
+          <t>No previous treatment with anti-parasitic medications</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cardiac issues can arise from various causes, and a history of other conditions may indicate an alternative diagnosis.</t>
+          <t>Lack of treatment with medications like benznidazole or nifurtimox suggests no prior diagnosis of Chagas Disease.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Previous treatment for Chagas Disease with antiparasitic medications</t>
+          <t>Previous treatment with benznidazole or nifurtimox</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prior treatment suggests a confirmed diagnosis, as these medications are specifically used for Chagas Disease.</t>
+          <t>These medications are specifically used to treat Chagas Disease, suggesting a past diagnosis.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No treatment history for Chagas Disease or antiparasitic medications</t>
+          <t>History of other causes for cardiomyopathy</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lack of treatment history suggests that the individual has not been diagnosed with or treated for Chagas Disease.</t>
+          <t>If cardiomyopathy is attributed to other known causes, it reduces the likelihood of Chagas Disease being the underlying cause.</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Genetic predisposition or familial clustering can indicate a higher risk of Chagas Disease in individuals.</t>
+          <t>A family history may indicate a higher risk of exposure and infection, especially in endemic areas.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of familial cases reduces the likelihood of genetic predisposition to Chagas Disease.</t>
+          <t>A lack of family history decreases the probability of exposure and infection, especially in non-endemic areas.</t>
         </is>
       </c>
     </row>
@@ -764,44 +764,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of living in or traveling to endemic areas for Chagas Disease</t>
+          <t>Residence in or travel to endemic areas in Latin America</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Individuals who have lived in or traveled to regions where Chagas Disease is prevalent are at a higher risk of exposure to the Trypanosoma cruzi parasite.</t>
+          <t>Chagas Disease is endemic in certain regions of Latin America, and residing in or traveling to these areas significantly increases the risk of exposure to the Trypanosoma cruzi parasite.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of travel to endemic areas</t>
+          <t>No travel history to endemic areas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Individuals who have never traveled to regions where Chagas Disease is endemic are less likely to have been exposed to the parasite.</t>
+          <t>Without travel to or residence in endemic areas, the likelihood of exposure to the Trypanosoma cruzi parasite is significantly reduced.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Exposure to triatomine bugs (kissing bugs)</t>
+          <t>Living in rural areas with poor housing conditions</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Direct exposure to these insects, which are known vectors for Chagas Disease, significantly increases the likelihood of infection.</t>
+          <t>Poor housing conditions, such as thatched roofs and mud walls, are associated with a higher risk of infestation by triatomine bugs, which are vectors for Chagas Disease.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No known exposure to triatomine bugs</t>
+          <t>Living in urban areas with good housing conditions</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Lack of contact with known vectors of Chagas Disease significantly reduces the likelihood of infection.</t>
+          <t>Urban areas with good housing conditions are less likely to have triatomine bug infestations, reducing the risk of Chagas Disease.</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Genetic predisposition or familial clustering of Chagas Disease can indicate a higher risk of the disease in the individual.</t>
+          <t>A family history of Chagas Disease may indicate a higher likelihood of exposure and transmission within the family, especially in endemic regions.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -823,51 +823,51 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of familial cases suggests a lower risk of genetic predisposition to the disease.</t>
+          <t>A lack of family history reduces the likelihood of inherited or familial exposure to the disease.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Participation in activities that increase risk of vector exposure (e.g., living in poorly constructed housing)</t>
+          <t>Occupation involving exposure to triatomine bugs</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Living conditions that facilitate contact with triatomine bugs increase the risk of contracting Chagas Disease.</t>
+          <t>Occupations that involve working in environments where triatomine bugs are prevalent increase the risk of contracting Chagas Disease.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Living in well-constructed housing with pest control measures</t>
+          <t>Occupation with no exposure to triatomine bugs</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Safe living conditions that minimize contact with vectors decrease the risk of contracting Chagas Disease.</t>
+          <t>Occupations that do not involve exposure to environments where triatomine bugs are present decrease the risk of contracting Chagas Disease.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of blood transfusions or organ transplants in endemic areas</t>
+          <t>Participation in activities that increase contact with triatomine bugs</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Receiving blood or organs from donors in regions where Chagas Disease is common raises the risk of transmission of the parasite.</t>
+          <t>Activities such as camping or sleeping outdoors in endemic areas can increase the risk of exposure to the vectors of Chagas Disease.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No history of blood transfusions or organ transplants</t>
+          <t>No participation in high-risk activities</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Not having received blood or organs from endemic areas eliminates a potential route of transmission for Chagas Disease.</t>
+          <t>Avoiding activities that increase contact with triatomine bugs reduces the risk of exposure to the vectors of Chagas Disease.</t>
         </is>
       </c>
     </row>
@@ -915,78 +915,78 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Cardiomyopathy</t>
+          <t>Unilateral periorbital swelling (Romaña's sign)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cardiomyopathy is a common manifestation of chronic Chagas Disease, leading to heart failure and arrhythmias.</t>
+          <t>This is a classic sign of acute Chagas Disease, often seen in the early stages after infection.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal heart sounds</t>
+          <t>Normal cardiac examination</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal heart sounds suggest that there is no significant cardiac involvement, which is common in Chagas Disease.</t>
+          <t>Absence of cardiac abnormalities makes chronic Chagas cardiomyopathy less likely.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Megaesophagus</t>
+          <t>Cardiomegaly</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Megaesophagus is a significant gastrointestinal complication associated with Chagas Disease, resulting from nerve damage.</t>
+          <t>Enlargement of the heart is a common finding in chronic Chagas Disease due to cardiomyopathy.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of gastrointestinal symptoms</t>
+          <t>No periorbital swelling</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of gastrointestinal symptoms such as dysphagia or constipation makes Chagas Disease less likely.</t>
+          <t>Absence of Romaña's sign reduces the likelihood of acute Chagas Disease.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Megacolon</t>
+          <t>Right bundle branch block (RBBB) on physical exam</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Megacolon is another gastrointestinal manifestation of Chagas Disease, often leading to constipation and abdominal pain.</t>
+          <t>This conduction abnormality is frequently associated with Chagas cardiomyopathy.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal abdominal exam</t>
+          <t>Normal liver and spleen size</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A normal abdominal exam indicates no signs of megacolon or megaesophagus, which are associated with Chagas Disease.</t>
+          <t>Lack of hepatosplenomegaly suggests the absence of acute Chagas Disease.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palpitations</t>
+          <t>Hepatosplenomegaly</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Palpitations can indicate arrhythmias due to cardiac involvement in Chagas Disease.</t>
+          <t>Enlargement of the liver and spleen can occur in the acute phase of Chagas Disease.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -996,29 +996,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of signs of heart failure, such as edema or jugular venous distension, suggests that cardiomyopathy is not present.</t>
+          <t>Absence of heart failure symptoms such as edema or ascites argues against Chagas cardiomyopathy.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Swollen lymph nodes</t>
+          <t>Ascites</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lymphadenopathy can occur in the acute phase of Chagas Disease, indicating an immune response to the infection.</t>
+          <t>Fluid accumulation in the abdomen can be a result of heart failure due to Chagas cardiomyopathy.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal vital signs</t>
+          <t>Normal ECG findings</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal vital signs indicate stable cardiovascular function, which is inconsistent with the cardiac complications of Chagas Disease.</t>
+          <t>A normal ECG reduces the likelihood of Chagas-related cardiac involvement.</t>
         </is>
       </c>
     </row>
@@ -1066,44 +1066,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Positive serology for Trypanosoma cruzi</t>
+          <t>Positive serology for Trypanosoma cruzi antibodies</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This test directly detects antibodies against the parasite responsible for Chagas Disease, making it a strong indicator of the disease.</t>
+          <t>A positive serology test for Trypanosoma cruzi antibodies is highly specific for Chagas Disease, as these antibodies are typically present in infected individuals.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Negative serology for Trypanosoma cruzi</t>
+          <t>Negative serology for Trypanosoma cruzi antibodies</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A negative serological test significantly reduces the likelihood of Chagas Disease, as it indicates no antibodies are present.</t>
+          <t>A negative serology test for T. cruzi antibodies suggests the absence of Chagas Disease, as these antibodies are typically present in infected individuals.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Electrocardiogram (ECG) changes consistent with Chagas cardiomyopathy</t>
+          <t>Positive polymerase chain reaction (PCR) for T. cruzi DNA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Specific ECG findings such as right bundle branch block or other conduction abnormalities are highly indicative of Chagas Disease.</t>
+          <t>PCR testing that detects T. cruzi DNA is highly specific and confirms the presence of the parasite, strongly supporting a diagnosis of Chagas Disease.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal ECG findings</t>
+          <t>Negative PCR for T. cruzi DNA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A normal ECG suggests that there is no cardiac involvement, which is common in Chagas Disease.</t>
+          <t>A negative PCR test for T. cruzi DNA indicates the absence of the parasite, which argues against Chagas Disease.</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>This test involves exposing uninfected triatomine bugs to a patient's blood, and if the bugs become infected, it confirms the presence of the parasite.</t>
+          <t>Xenodiagnosis involves using live vectors to detect T. cruzi in the blood, and a positive result is highly specific for Chagas Disease.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1125,51 +1125,51 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>If the xenodiagnosis test is negative, it indicates that the parasite is not present in the patient's blood.</t>
+          <t>A negative xenodiagnosis suggests the absence of T. cruzi in the blood, which is evidence against Chagas Disease.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Imaging showing cardiac or gastrointestinal involvement</t>
+          <t>Positive hemoculture for T. cruzi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Imaging studies may reveal specific changes in the heart or digestive tract that are characteristic of Chagas Disease.</t>
+          <t>A positive hemoculture indicates the presence of T. cruzi in the blood, which is highly specific for Chagas Disease.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Imaging showing no cardiac or gastrointestinal abnormalities</t>
+          <t>Negative hemoculture for T. cruzi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal imaging results suggest that there is no involvement of the heart or digestive system, which are commonly affected in Chagas Disease.</t>
+          <t>A negative hemoculture indicates that T. cruzi is not present in the blood, which argues against Chagas Disease.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Positive PCR for Trypanosoma cruzi</t>
+          <t>Positive immunofluorescence assay (IFA) for T. cruzi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Polymerase chain reaction (PCR) can detect the DNA of the parasite, providing strong evidence of active infection.</t>
+          <t>IFA is a specific test for detecting antibodies against T. cruzi, and a positive result supports the diagnosis of Chagas Disease.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Negative PCR for Trypanosoma cruzi</t>
+          <t>Negative IFA for T. cruzi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A negative PCR result indicates that there is no detectable DNA of the parasite, strongly arguing against the diagnosis of Chagas Disease.</t>
+          <t>A negative IFA test for T. cruzi antibodies suggests the absence of Chagas Disease, as these antibodies are typically present in infected individuals.</t>
         </is>
       </c>
     </row>
